--- a/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
@@ -43,7 +43,7 @@
     <t>int#ref=TbResource</t>
   </si>
   <si>
-    <t>(array#sep=,),int</t>
+    <t>(array#sep=,),bool</t>
   </si>
   <si>
     <t>bool</t>
@@ -760,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -769,9 +769,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,9 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1124,7 +1118,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1136,112 +1130,112 @@
     <col min="5" max="5" width="48.0714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7142857142857" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="8" max="9" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="8" max="9" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.1160714285714" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="14"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="2">
         <v>2001</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2">
@@ -1256,13 +1250,13 @@
       <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>200000</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -1270,7 +1264,7 @@
       <c r="B6" s="2">
         <v>2002</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2">
@@ -1285,13 +1279,13 @@
       <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>200000</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -1299,7 +1293,7 @@
       <c r="B7" s="2">
         <v>2003</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="2">
@@ -1314,13 +1308,13 @@
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>200000</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>10000</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
@@ -13,8 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stone</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Map = 1
+Block = 2,
+Building = 4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +49,9 @@
     <t>model</t>
   </si>
   <si>
+    <t>placed_layer</t>
+  </si>
+  <si>
     <t>shape</t>
   </si>
   <si>
@@ -64,7 +91,10 @@
     <t>模型</t>
   </si>
   <si>
-    <t>形状</t>
+    <t>放置目标层</t>
+  </si>
+  <si>
+    <t>放置形状</t>
   </si>
   <si>
     <t>是否受攻击</t>
@@ -116,7 +146,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +317,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +677,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,16 +701,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -678,89 +719,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -789,6 +830,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1115,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1126,16 +1173,16 @@
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="9.51785714285714" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.0714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.0714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="8" max="9" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="4" max="5" width="22.0714285714286" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.0714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7142857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="9" max="10" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1146,193 +1193,213 @@
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="7"/>
-      <c r="J1" s="12"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:11">
       <c r="B5" s="2">
         <v>2001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>20010001</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="b">
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
         <v>200000</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:11">
       <c r="B6" s="2">
         <v>2002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>20020001</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2">
-        <v>200000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:11">
       <c r="B7" s="2">
         <v>2003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>20030001</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="b">
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2">
         <v>200000</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="2"/>
+    <row r="8" spans="6:6">
+      <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="2"/>
+    <row r="9" spans="6:6">
+      <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="2"/>
+    <row r="10" spans="6:6">
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>stone</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>model</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int#ref=TbResource</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>说明</t>
   </si>
   <si>
     <t>模型</t>
@@ -822,14 +831,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,27 +1171,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="9.51785714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="5" width="22.0714285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="48.0714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="1"/>
+    <col min="3" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="6" width="22.0714285714286" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.0714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="10" max="11" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1190,213 +1199,234 @@
         <v>1</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="7"/>
-      <c r="K1" s="14"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="14"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:12">
       <c r="B5" s="2">
         <v>2001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
         <v>20010001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="b">
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2">
         <v>200000</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:12">
       <c r="B6" s="2">
         <v>2002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
         <v>20020001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>200000</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:12">
       <c r="B7" s="2">
         <v>2003</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20030001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2">
+        <v>200000</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2">
-        <v>20030001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2">
-        <v>200000</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="6:6">
-      <c r="F8" s="2"/>
+    <row r="8" spans="7:7">
+      <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="2"/>
+    <row r="9" spans="7:7">
+      <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="2"/>
+    <row r="10" spans="7:7">
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -64,6 +64,9 @@
     <t>props</t>
   </si>
   <si>
+    <t>skills</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>map,NumericType,int</t>
   </si>
   <si>
+    <t>array,int#ref=TbSkill</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
   </si>
   <si>
     <t>属性值</t>
+  </si>
+  <si>
+    <t>技能</t>
   </si>
   <si>
     <t>##group</t>
@@ -1171,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1188,10 +1197,12 @@
     <col min="9" max="9" width="10.1160714285714" style="3" customWidth="1"/>
     <col min="10" max="11" width="10.1160714285714" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="1"/>
+    <col min="13" max="14" width="12.0446428571429" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1220,86 +1231,105 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="14"/>
+      <c r="M1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="14"/>
+      <c r="M2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
@@ -1308,16 +1338,19 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="14"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" s="2">
         <v>2001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>20010001</v>
@@ -1326,22 +1359,25 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2">
         <v>200000</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" s="4">
         <v>10000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20010001</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1349,10 +1385,10 @@
         <v>2002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>20020001</v>
@@ -1361,19 +1397,19 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2">
         <v>200000</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L6" s="4">
         <v>10000</v>
@@ -1384,10 +1420,10 @@
         <v>2003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>20030001</v>
@@ -1396,19 +1432,19 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2">
         <v>200000</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L7" s="4">
         <v>10000</v>
@@ -1424,9 +1460,11 @@
       <c r="G10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -64,9 +64,6 @@
     <t>props</t>
   </si>
   <si>
-    <t>skills</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>map,NumericType,int</t>
   </si>
   <si>
-    <t>array,int#ref=TbSkill</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
   </si>
   <si>
     <t>属性值</t>
-  </si>
-  <si>
-    <t>技能</t>
   </si>
   <si>
     <t>##group</t>
@@ -1180,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1197,12 +1188,10 @@
     <col min="9" max="9" width="10.1160714285714" style="3" customWidth="1"/>
     <col min="10" max="11" width="10.1160714285714" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="13" max="14" width="12.0446428571429" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="13" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1231,105 +1220,86 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="14"/>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="13" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
@@ -1338,19 +1308,16 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:12">
       <c r="B5" s="2">
         <v>2001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
         <v>20010001</v>
@@ -1359,25 +1326,22 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2">
         <v>200000</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L5" s="4">
         <v>10000</v>
-      </c>
-      <c r="M5" s="2">
-        <v>20010001</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1385,10 +1349,10 @@
         <v>2002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>20020001</v>
@@ -1397,19 +1361,19 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2">
         <v>200000</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L6" s="4">
         <v>10000</v>
@@ -1420,10 +1384,10 @@
         <v>2003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2">
         <v>20030001</v>
@@ -1432,19 +1396,19 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2">
         <v>200000</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L7" s="4">
         <v>10000</v>
@@ -1460,11 +1424,9 @@
       <c r="G10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
     <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Block.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -61,6 +61,9 @@
     <t>can_be_attack</t>
   </si>
   <si>
+    <t>price_placement</t>
+  </si>
+  <si>
     <t>props</t>
   </si>
   <si>
@@ -107,6 +110,12 @@
   </si>
   <si>
     <t>是否受攻击</t>
+  </si>
+  <si>
+    <t>放置消耗类型</t>
+  </si>
+  <si>
+    <t>放置消耗值</t>
   </si>
   <si>
     <t>属性类型</t>
@@ -1171,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1185,13 +1194,14 @@
     <col min="5" max="6" width="22.0714285714286" style="2" customWidth="1"/>
     <col min="7" max="7" width="48.0714285714286" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="10" max="11" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="1"/>
+    <col min="9" max="10" width="15.6160714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="12" max="13" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1214,110 +1224,126 @@
       <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="13"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:14">
       <c r="B5" s="2">
         <v>2001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>20010001</v>
@@ -1326,33 +1352,33 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2">
         <v>200000</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="M5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:14">
       <c r="B6" s="2">
         <v>2002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>20020001</v>
@@ -1361,33 +1387,33 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2">
         <v>200000</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="M6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:14">
       <c r="B7" s="2">
         <v>2003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>20030001</v>
@@ -1396,21 +1422,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2">
         <v>200000</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -1424,9 +1450,11 @@
       <c r="G10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
+  <mergeCells count="4">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
